--- a/primera_estimacion.xlsx
+++ b/primera_estimacion.xlsx
@@ -385,7 +385,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99.5322454082593</v>
+        <v>99.5322454082594</v>
       </c>
       <c r="B3" t="n">
         <v>3.07076089128957</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>85.919604021205</v>
+        <v>85.9196040212049</v>
       </c>
       <c r="B4" t="n">
         <v>3.11959367338019</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91.560123717935</v>
+        <v>91.5601237179349</v>
       </c>
       <c r="B7" t="n">
         <v>2.98162382531421</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92.8314808595506</v>
+        <v>92.8314808595507</v>
       </c>
       <c r="B8" t="n">
         <v>2.95069224817726</v>
@@ -472,7 +472,7 @@
         <v>102.637819399624</v>
       </c>
       <c r="B9" t="n">
-        <v>2.99486709064758</v>
+        <v>2.99486709064757</v>
       </c>
       <c r="C9" t="n">
         <v>2.04345342174318</v>
@@ -506,7 +506,7 @@
         <v>1.91670708524944</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.978009853051384</v>
+        <v>-0.978009853051383</v>
       </c>
     </row>
     <row r="12">
@@ -525,10 +525,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>92.8841611728686</v>
+        <v>92.884161172869</v>
       </c>
       <c r="B13" t="n">
-        <v>2.98428930365675</v>
+        <v>2.98428930365674</v>
       </c>
       <c r="C13" t="n">
         <v>2.06297762374807</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>94.2275174891805</v>
+        <v>94.2275174891804</v>
       </c>
       <c r="B14" t="n">
         <v>2.91179201363554</v>
@@ -548,12 +548,12 @@
         <v>2.01258300576985</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.892764431689637</v>
+        <v>-0.892764431689636</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>69.816498965743</v>
+        <v>69.8164989657432</v>
       </c>
       <c r="B15" t="n">
         <v>3.06208262844098</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>97.5482643743729</v>
+        <v>97.548264374373</v>
       </c>
       <c r="B17" t="n">
         <v>2.99220635588393</v>
@@ -604,7 +604,7 @@
         <v>1.98621996047569</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.977839265001704</v>
+        <v>-0.977839265001705</v>
       </c>
     </row>
     <row r="19">
@@ -623,7 +623,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>99.9173984325932</v>
+        <v>99.9173984325937</v>
       </c>
       <c r="B20" t="n">
         <v>2.97498016160767</v>
@@ -640,7 +640,7 @@
         <v>111.192033113158</v>
       </c>
       <c r="B21" t="n">
-        <v>2.95463547056477</v>
+        <v>2.95463547056478</v>
       </c>
       <c r="C21" t="n">
         <v>1.97579292848209</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>89.3138576754555</v>
+        <v>89.3138576754554</v>
       </c>
       <c r="B22" t="n">
         <v>2.99776661526246</v>
@@ -688,12 +688,12 @@
         <v>1.97822379006883</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.991168428131523</v>
+        <v>-0.991168428131524</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>92.4797930327712</v>
+        <v>92.4797930327711</v>
       </c>
       <c r="B25" t="n">
         <v>2.94661410821526</v>
@@ -702,12 +702,12 @@
         <v>1.98502674393986</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.876636781260957</v>
+        <v>-0.876636781260956</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>98.8381354162433</v>
+        <v>98.8381354162436</v>
       </c>
       <c r="B26" t="n">
         <v>3.09287008161607</v>
@@ -738,7 +738,7 @@
         <v>110.263917852299</v>
       </c>
       <c r="B28" t="n">
-        <v>2.98869345871344</v>
+        <v>2.98869345871345</v>
       </c>
       <c r="C28" t="n">
         <v>1.95913263044898</v>
@@ -758,12 +758,12 @@
         <v>2.00345210200748</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.995428627947641</v>
+        <v>-0.99542862794764</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>90.5007796784087</v>
+        <v>90.5007796784088</v>
       </c>
       <c r="B30" t="n">
         <v>2.99756254072678</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>94.7455785636906</v>
+        <v>94.7455785636905</v>
       </c>
       <c r="B31" t="n">
         <v>2.98818025727886</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>93.2682310909223</v>
+        <v>93.2682310909222</v>
       </c>
       <c r="B33" t="n">
         <v>2.97369235348316</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>76.6322492618064</v>
+        <v>76.6322492618061</v>
       </c>
       <c r="B34" t="n">
         <v>3.05170253431498</v>
@@ -828,7 +828,7 @@
         <v>1.9845538313297</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.835833801369404</v>
+        <v>-0.835833801369405</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>103.462785848555</v>
+        <v>103.462785848556</v>
       </c>
       <c r="B39" t="n">
         <v>3.04601003797007</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>87.670858068498</v>
+        <v>87.6708580684979</v>
       </c>
       <c r="B41" t="n">
         <v>2.91390551909096</v>
@@ -926,12 +926,12 @@
         <v>2.06215423694222</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.891312128632358</v>
+        <v>-0.891312128632357</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>96.8911218242446</v>
+        <v>96.8911218242445</v>
       </c>
       <c r="B42" t="n">
         <v>2.91397933013544</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>89.6120112686105</v>
+        <v>89.6120112686107</v>
       </c>
       <c r="B44" t="n">
         <v>3.09315420184714</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>95.2633153831082</v>
+        <v>95.2633153831084</v>
       </c>
       <c r="B45" t="n">
         <v>3.0403514435551</v>
@@ -996,7 +996,7 @@
         <v>1.98723572580182</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.986043911741439</v>
+        <v>-0.98604391174144</v>
       </c>
     </row>
     <row r="47">
@@ -1018,13 +1018,13 @@
         <v>104.387146376565</v>
       </c>
       <c r="B48" t="n">
-        <v>3.01140976328378</v>
+        <v>3.01140976328377</v>
       </c>
       <c r="C48" t="n">
         <v>1.92260391930244</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.919867843194679</v>
+        <v>-0.91986784319468</v>
       </c>
     </row>
     <row r="49">
